--- a/results/MVSE/dblp/MVSE_dblp<l05><NCEK>91.77.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l05><NCEK>91.77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +726,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -774,27 +774,27 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="N5" t="n">
-        <v>91.31999999999999</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_10_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
@@ -839,30 +839,30 @@
         <v>8192</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="N6" t="n">
-        <v>91.31999999999999</v>
+        <v>91.37</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_34_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_56_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -904,33 +904,33 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="N7" t="n">
-        <v>91.06</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="P7" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_25_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_10_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -972,33 +972,33 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="N8" t="n">
-        <v>89.98999999999999</v>
+        <v>91.06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_38_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_25_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1040,33 +1040,33 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="N9" t="n">
-        <v>89.54000000000001</v>
+        <v>90.47</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P9" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_23_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_24_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1108,29 +1108,233 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N10" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_38_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>89.54000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_23_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>128</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.35</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N12" t="n">
         <v>85.51000000000001</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O12" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>0.83</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_44_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>128</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>8192</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N13" t="n">
+        <v>85.20999999999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_47_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
